--- a/src/data.xlsx
+++ b/src/data.xlsx
@@ -40,8 +40,7 @@
     <t>2024年3月13日（令和6年3月13日）</t>
   </si>
   <si>
-    <t xml:space="preserve">
-１高額医薬品（感染症治療薬）に対する対応について
+    <t xml:space="preserve">１高額医薬品（感染症治療薬）に対する対応について
 ２最適使用推進ガイドラインについて
 ３公知申請とされた適応外薬の保険適用について
 ４費用対効果評価専門組織からの報告について
@@ -54,8 +53,7 @@
     <t>－</t>
   </si>
   <si>
-    <t xml:space="preserve">
-資料
+    <t xml:space="preserve">資料
 </t>
   </si>
   <si>
@@ -65,13 +63,11 @@
     <t>2024年2月14日（令和6年2月14日）</t>
   </si>
   <si>
-    <t xml:space="preserve">
-１答申について
+    <t>１答申について
 ２歯科用貴金属随時改定について</t>
   </si>
   <si>
-    <t xml:space="preserve">
-議事録
+    <t xml:space="preserve">議事録
 </t>
   </si>
   <si>
@@ -81,8 +77,7 @@
     <t>2024年2月7日（令和6年2月7日）</t>
   </si>
   <si>
-    <t xml:space="preserve">
-１パブリックコメント、公聴会の報告について
+    <t>１パブリックコメント、公聴会の報告について
 ２個別改定項目（その３）について
 ３答申書の附帯意見案について（その２）</t>
   </si>
@@ -93,8 +88,7 @@
     <t>2024年1月31日（令和6年1月31日）</t>
   </si>
   <si>
-    <t xml:space="preserve">
-１個別改定項目（その２）について
+    <t xml:space="preserve">１個別改定項目（その２）について
 ２答申書の附帯意見案について（その１）
 </t>
   </si>
@@ -105,8 +99,7 @@
     <t>2024年1月26日（令和6年1月26日）</t>
   </si>
   <si>
-    <t xml:space="preserve">
-１診療報酬基本問題小委員会からの報告について
+    <t xml:space="preserve">１診療報酬基本問題小委員会からの報告について
 ２医療機関等における職員の賃上げ（その２）について
 ３令和６年度実施の特定保険医療材料の機能区分の見直し等について
 ４医療機器及び臨床検査の保険適用について
@@ -120,8 +113,7 @@
     <t>2024年1月19日（令和6年1月19日）</t>
   </si>
   <si>
-    <t xml:space="preserve">
-１令和６年度診療報酬改定に係る検討状況について（説明）
+    <t xml:space="preserve">１令和６年度診療報酬改定に係る検討状況について（説明）
 ２意見発表者による意見発表、中医協委員からの質問
 </t>
   </si>
@@ -132,8 +124,7 @@
     <t>2024年1月17日（令和6年1月17日）</t>
   </si>
   <si>
-    <t xml:space="preserve">
-１診療報酬基本問題小委員会からの報告について
+    <t xml:space="preserve">１診療報酬基本問題小委員会からの報告について
 ２令和６年度薬価制度の見直しについて
 ３市場拡大再算定等について
 ４令和６年度保険医療材料制度の見直しについて
@@ -148,8 +139,7 @@
     <t>2024年1月12日（令和6年1月12日）</t>
   </si>
   <si>
-    <t xml:space="preserve">
-１これまでの議論の整理（案）について
+    <t xml:space="preserve">１これまでの議論の整理（案）について
 ２令和６年度診療報酬改定について（諮問）
 ３その他
 </t>
@@ -161,8 +151,7 @@
     <t>2024年1月10日（令和6年1月10日）</t>
   </si>
   <si>
-    <t xml:space="preserve">
-１診療報酬基本問題小委員会からの報告について
+    <t xml:space="preserve">１診療報酬基本問題小委員会からの報告について
 ２医療機関等における職員の賃上げ（その１）について
 ３個別事項（その23）について
 ４入院（その10）について
@@ -177,8 +166,7 @@
     <t>2023年12月27日（令和5年12月27日）</t>
   </si>
   <si>
-    <t xml:space="preserve">
-１医療DX（その５）について
+    <t xml:space="preserve">１医療DX（その５）について
 ２個別事項（その21）について
 ３個別事項（その22）について
 ４医科点数表における医療技術に係る項目の整理について
@@ -194,8 +182,7 @@
     <t>2023年12月22日（令和5年12月22日）</t>
   </si>
   <si>
-    <t xml:space="preserve">
-１臨床検査の保険適用について
+    <t xml:space="preserve">１臨床検査の保険適用について
 ２個別事項（その18）について
 ３個別事項（その19）について
 ４個別事項（その20）について
@@ -210,8 +197,7 @@
     <t>2023年12月20日（令和5年12月20日）</t>
   </si>
   <si>
-    <t xml:space="preserve">
-１令和６年度薬価制度改革の骨子（案）について
+    <t xml:space="preserve">１令和６年度薬価制度改革の骨子（案）について
 ２令和６年度保険医療材料制度改革の骨子（案）について
 ３令和６年度費用対効果評価制度改革の骨子（案）について
 ４個別事項（その15）について
@@ -227,8 +213,7 @@
     <t>2023年12月15日（令和5年12月15日）</t>
   </si>
   <si>
-    <t xml:space="preserve">
-１在宅（その６）について
+    <t xml:space="preserve">１在宅（その６）について
 ２入院（その７）について
 ３入院（その８）について
 ４歯科医療（その３）について
@@ -243,8 +228,7 @@
     <t>2023年12月13日（令和5年12月13日）</t>
   </si>
   <si>
-    <t xml:space="preserve">
-１レケンビに対する費用対効果評価について（案）
+    <t xml:space="preserve">１レケンビに対する費用対効果評価について（案）
 ２新医薬品の薬価収載について
 ３最適使用推進ガイドラインについて
 ４医療機器及び臨床検査の保険適用について
@@ -263,8 +247,7 @@
     <t>2023年12月8日（令和5年12月8日）</t>
   </si>
   <si>
-    <t xml:space="preserve">
-１診療報酬調査専門組織「医療機関等における消費税負担に関する分科会」からの報告について
+    <t xml:space="preserve">１診療報酬調査専門組織「医療機関等における消費税負担に関する分科会」からの報告について
 ２医療DX（その４）について
 ３個別事項（その12）について
 ４個別事項（その13）について
@@ -281,8 +264,7 @@
     <t>2023年12月6日（令和5年12月6日）</t>
   </si>
   <si>
-    <t xml:space="preserve">
-１個別事項（その11）について
+    <t xml:space="preserve">１個別事項（その11）について
 ２入院（その６）について
 ３感染症対応について（その２）
 </t>

--- a/src/data.xlsx
+++ b/src/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="60">
   <si>
     <t>回数</t>
   </si>
@@ -32,6 +32,27 @@
   </si>
   <si>
     <t>開催案内</t>
+  </si>
+  <si>
+    <t>第586回</t>
+  </si>
+  <si>
+    <t>2024年3月22日（令和6年3月22日）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">１高額医薬品（感染症治療薬）に対する対応について
+２市場拡大再算定に関する対応について
+３プログラム医療機器に係る評価療養等について
+４希少がん領域における体外診断用医薬品等の診療報酬上の取扱いについて
+５令和４年度DPC導入の影響評価に係る調査「退院患者調査」の結果報告について
+</t>
+  </si>
+  <si>
+    <t>－</t>
+  </si>
+  <si>
+    <t xml:space="preserve">資料
+</t>
   </si>
   <si>
     <t>第585回</t>
@@ -47,13 +68,6 @@
 ５先進医療会議及び患者申出療養評価会議からの報告について
 ６DPC対象病院の合併に係る報告について
 ７在宅自己注射について
-</t>
-  </si>
-  <si>
-    <t>－</t>
-  </si>
-  <si>
-    <t xml:space="preserve">資料
 </t>
   </si>
   <si>
@@ -599,7 +613,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -656,7 +670,7 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -667,16 +681,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -696,7 +710,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -716,7 +730,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -736,7 +750,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -756,7 +770,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -776,7 +790,7 @@
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -796,7 +810,7 @@
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -816,7 +830,7 @@
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -836,7 +850,7 @@
         <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -856,7 +870,7 @@
         <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -876,7 +890,7 @@
         <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -896,7 +910,7 @@
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -916,7 +930,7 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -936,12 +950,32 @@
         <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
       </c>
       <c r="F17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
         <v>9</v>
       </c>
     </row>

--- a/src/data.xlsx
+++ b/src/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
   <si>
     <t>回数</t>
   </si>
@@ -32,6 +32,29 @@
   </si>
   <si>
     <t>開催案内</t>
+  </si>
+  <si>
+    <t>第587回</t>
+  </si>
+  <si>
+    <t>2024年4月10日（令和6年4月10日）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">１部会・小委員会に属する委員の指名等について
+２医薬品の新規薬価収載等について
+３最適使用推進ガイドラインについて
+４費用対効果評価の結果を踏まえた薬価の見直しについて
+５ＤＰＣにおける高額な新規の医薬品等への対応について
+６在宅自己注射について
+７令和６年度改定を踏まえたＤＰＣ/ＰＤＰＳの現況について
+</t>
+  </si>
+  <si>
+    <t>－</t>
+  </si>
+  <si>
+    <t xml:space="preserve">資料
+</t>
   </si>
   <si>
     <t>第586回</t>
@@ -45,13 +68,6 @@
 ３プログラム医療機器に係る評価療養等について
 ４希少がん領域における体外診断用医薬品等の診療報酬上の取扱いについて
 ５令和４年度DPC導入の影響評価に係る調査「退院患者調査」の結果報告について
-</t>
-  </si>
-  <si>
-    <t>－</t>
-  </si>
-  <si>
-    <t xml:space="preserve">資料
 </t>
   </si>
   <si>
@@ -613,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -690,7 +706,7 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -701,16 +717,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -730,7 +746,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -750,7 +766,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -770,7 +786,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -790,7 +806,7 @@
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -810,7 +826,7 @@
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -830,7 +846,7 @@
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -850,7 +866,7 @@
         <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -870,7 +886,7 @@
         <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -890,7 +906,7 @@
         <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -910,7 +926,7 @@
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -930,7 +946,7 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -950,7 +966,7 @@
         <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -970,12 +986,32 @@
         <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
       </c>
       <c r="F18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
         <v>9</v>
       </c>
     </row>

--- a/src/data.xlsx
+++ b/src/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="66">
   <si>
     <t>回数</t>
   </si>
@@ -32,6 +32,24 @@
   </si>
   <si>
     <t>開催案内</t>
+  </si>
+  <si>
+    <t>第588回</t>
+  </si>
+  <si>
+    <t>2024年4月24日（令和6年4月24日）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">１   臨床検査の保険適用ついて
+２費用対効果評価専門組織からの報告について
+</t>
+  </si>
+  <si>
+    <t>－</t>
+  </si>
+  <si>
+    <t xml:space="preserve">資料
+</t>
   </si>
   <si>
     <t>第587回</t>
@@ -47,13 +65,6 @@
 ５ＤＰＣにおける高額な新規の医薬品等への対応について
 ６在宅自己注射について
 ７令和６年度改定を踏まえたＤＰＣ/ＰＤＰＳの現況について
-</t>
-  </si>
-  <si>
-    <t>－</t>
-  </si>
-  <si>
-    <t xml:space="preserve">資料
 </t>
   </si>
   <si>
@@ -629,7 +640,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -726,7 +737,7 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -737,16 +748,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -766,7 +777,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -786,7 +797,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -806,7 +817,7 @@
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -826,7 +837,7 @@
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -846,7 +857,7 @@
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -866,7 +877,7 @@
         <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -886,7 +897,7 @@
         <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -906,7 +917,7 @@
         <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -926,7 +937,7 @@
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -946,7 +957,7 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -966,7 +977,7 @@
         <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -986,7 +997,7 @@
         <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -1006,12 +1017,32 @@
         <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
       </c>
       <c r="F19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
         <v>9</v>
       </c>
     </row>

--- a/src/data.xlsx
+++ b/src/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="69">
   <si>
     <t>回数</t>
   </si>
@@ -34,21 +34,37 @@
     <t>開催案内</t>
   </si>
   <si>
+    <t>第589回</t>
+  </si>
+  <si>
+    <t>2024年5月15日（令和6年5月15日）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">１医薬品の新規薬価収載等について
+２最適使用推進ガイドラインについて(報告)
+３最適使用推進ガイドラインについて
+４費用対効果評価の結果を踏まえた薬価の見直しについて
+５ＤＰＣにおける高額な新規の医薬品等への対応について
+６在宅自己注射について
+７答申書附帯意見に関する事項の検討の進め方について
+</t>
+  </si>
+  <si>
+    <t>－</t>
+  </si>
+  <si>
+    <t xml:space="preserve">資料
+</t>
+  </si>
+  <si>
     <t>第588回</t>
   </si>
   <si>
     <t>2024年4月24日（令和6年4月24日）</t>
   </si>
   <si>
-    <t xml:space="preserve">１   臨床検査の保険適用ついて
-２費用対効果評価専門組織からの報告について
-</t>
-  </si>
-  <si>
-    <t>－</t>
-  </si>
-  <si>
-    <t xml:space="preserve">資料
+    <t xml:space="preserve">１臨床検査の保険適用について
+２市費用対効果評価専門組織からの報告について
 </t>
   </si>
   <si>
@@ -640,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -757,7 +773,7 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -768,16 +784,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -797,7 +813,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -817,7 +833,7 @@
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -837,7 +853,7 @@
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -857,7 +873,7 @@
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -877,7 +893,7 @@
         <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -897,7 +913,7 @@
         <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -917,7 +933,7 @@
         <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -937,7 +953,7 @@
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -957,7 +973,7 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -977,7 +993,7 @@
         <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -997,7 +1013,7 @@
         <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -1017,7 +1033,7 @@
         <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -1037,12 +1053,32 @@
         <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
       </c>
       <c r="F20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
         <v>9</v>
       </c>
     </row>

--- a/src/data.xlsx
+++ b/src/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="72">
   <si>
     <t>回数</t>
   </si>
@@ -32,6 +32,29 @@
   </si>
   <si>
     <t>開催案内</t>
+  </si>
+  <si>
+    <t>第590回</t>
+  </si>
+  <si>
+    <t>2024年6月12日（令和6年6月12日）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">１令和６年度診療報酬改定の結果検証に係る特別調査の実施について
+２費用対効果評価専門組織からの報告について
+３最適使用推進ガイドラインについて(報告)
+４公知申請とされた適応外薬の保険適用について
+５ＤＰＣ対象病院の退出に係る報告について
+６先進医療会議からの報告について
+７その他
+</t>
+  </si>
+  <si>
+    <t>－</t>
+  </si>
+  <si>
+    <t xml:space="preserve">資料
+</t>
   </si>
   <si>
     <t>第589回</t>
@@ -50,13 +73,6 @@
 </t>
   </si>
   <si>
-    <t>－</t>
-  </si>
-  <si>
-    <t xml:space="preserve">資料
-</t>
-  </si>
-  <si>
     <t>第588回</t>
   </si>
   <si>
@@ -64,7 +80,7 @@
   </si>
   <si>
     <t xml:space="preserve">１臨床検査の保険適用について
-２市費用対効果評価専門組織からの報告について
+２費用対効果評価専門組織からの報告について
 </t>
   </si>
   <si>
@@ -84,6 +100,10 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">議事録
+</t>
+  </si>
+  <si>
     <t>第586回</t>
   </si>
   <si>
@@ -122,10 +142,6 @@
   <si>
     <t>１答申について
 ２歯科用貴金属随時改定について</t>
-  </si>
-  <si>
-    <t xml:space="preserve">議事録
-</t>
   </si>
   <si>
     <t>第583回</t>
@@ -656,7 +672,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -753,7 +769,7 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -764,16 +780,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -784,16 +800,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -813,7 +829,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -833,7 +849,7 @@
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -853,7 +869,7 @@
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -873,7 +889,7 @@
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -893,7 +909,7 @@
         <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -913,7 +929,7 @@
         <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -933,7 +949,7 @@
         <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -953,7 +969,7 @@
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -973,7 +989,7 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -993,7 +1009,7 @@
         <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -1013,7 +1029,7 @@
         <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -1033,7 +1049,7 @@
         <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -1053,7 +1069,7 @@
         <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -1073,12 +1089,32 @@
         <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
         <v>9</v>
       </c>
     </row>
